--- a/data/trans_orig/P78C9_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C9_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8554FA47-8D93-42EF-9F2C-2C7CCAC92E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74B9A338-50C4-4262-9E26-25D637937D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00ADC2C7-2D2B-43AA-B1B5-0102BEBE2286}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B236122C-9643-40C4-8E01-AE3E707FED42}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,37 +98,37 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDAA650-2CAD-4320-A344-29608C5D8535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB07BC6-29E8-4A91-8C93-F0D0FC5FA2FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>14</v>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>14</v>
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2812</v>
+        <v>2320</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>20</v>
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2812</v>
+        <v>2320</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>943</v>
+        <v>880</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>21</v>
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>943</v>
+        <v>880</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>21</v>
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>3755</v>
+        <v>3200</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>3755</v>
+        <v>3200</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>14</v>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>12</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>14</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
@@ -1126,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2972</v>
+        <v>2482</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>23</v>
@@ -1141,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>4178</v>
+        <v>3669</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>25</v>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>943</v>
+        <v>880</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>27</v>
@@ -1192,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>943</v>
+        <v>880</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>29</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -1228,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>3915</v>
+        <v>3362</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>14</v>
@@ -1243,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="N15" s="7">
-        <v>5121</v>
+        <v>4549</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>14</v>
